--- a/create-p4divisionsums/Sample_P4Division.xlsx
+++ b/create-p4divisionsums/Sample_P4Division.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gordi\Downloads\create-sums-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{221F289D-A188-4BA8-A95D-39C98BA09260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4809CB1A-7EB8-4EF8-9218-7F708A2E6460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="14400" windowHeight="7360" xr2:uid="{FBDFD47E-5E7A-474F-A772-80D2C3B91454}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C24EDEE7-41D5-42E7-BB6D-21146FC5915B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
   <si>
     <t>Write answer in the format 5 r 2, or 5 r 0. Do not write 05 r 2 (drop the leading zero).</t>
   </si>
@@ -42,55 +42,58 @@
     <t>=</t>
   </si>
   <si>
+    <t>15 r 1</t>
+  </si>
+  <si>
+    <t>9 r 3</t>
+  </si>
+  <si>
+    <t>5 r 3</t>
+  </si>
+  <si>
+    <t>8 r 7</t>
+  </si>
+  <si>
+    <t>3 r 4</t>
+  </si>
+  <si>
+    <t>6 r 3</t>
+  </si>
+  <si>
+    <t>2 r 1</t>
+  </si>
+  <si>
+    <t>5 r 1</t>
+  </si>
+  <si>
+    <t>3 r 7</t>
+  </si>
+  <si>
+    <t>3 r 3</t>
+  </si>
+  <si>
+    <t>1 r 8</t>
+  </si>
+  <si>
+    <t>7 r 0</t>
+  </si>
+  <si>
     <t>8 r 1</t>
   </si>
   <si>
-    <t>4 r 8</t>
-  </si>
-  <si>
-    <t>6 r 3</t>
-  </si>
-  <si>
-    <t>12 r 1</t>
-  </si>
-  <si>
-    <t>18 r 3</t>
-  </si>
-  <si>
-    <t>14 r 1</t>
-  </si>
-  <si>
-    <t>7 r 0</t>
-  </si>
-  <si>
-    <t>9 r 6</t>
-  </si>
-  <si>
-    <t>12 r 4</t>
-  </si>
-  <si>
-    <t>5 r 5</t>
-  </si>
-  <si>
-    <t>11 r 2</t>
-  </si>
-  <si>
-    <t>5 r 1</t>
-  </si>
-  <si>
-    <t>6 r 5</t>
-  </si>
-  <si>
-    <t>15 r 3</t>
-  </si>
-  <si>
-    <t>11 r 3</t>
-  </si>
-  <si>
-    <t>5 r 7</t>
-  </si>
-  <si>
-    <t>8 r 7</t>
+    <t>17 r 1</t>
+  </si>
+  <si>
+    <t>11 r 7</t>
+  </si>
+  <si>
+    <t>1 r 6</t>
+  </si>
+  <si>
+    <t>4 r 4</t>
+  </si>
+  <si>
+    <t>15 r2</t>
   </si>
 </sst>
 </file>
@@ -454,10 +457,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C4C4AC-4F6C-4652-91B4-0794A79D59CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDB517A-F4A9-4F80-8350-710F812DAF77}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -472,21 +477,23 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F3" s="1" t="str">
-        <f>IF(E1="","Please answer",IF(E1&lt;&gt;G1,"Wrong","Correct"))</f>
-        <v>Please answer</v>
+        <f>IF(E3="","Please answer",IF(E3&lt;&gt;G3,"Wrong","Correct"))</f>
+        <v>Wrong</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>3</v>
@@ -494,21 +501,23 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F4" s="1" t="str">
-        <f>IF(E2="","Please answer",IF(E2&lt;&gt;G2,"Wrong","Correct"))</f>
-        <v>Please answer</v>
+        <f>IF(E4="","Please answer",IF(E4&lt;&gt;G4,"Wrong","Correct"))</f>
+        <v>Correct</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>4</v>
@@ -516,21 +525,23 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F5" s="1" t="str">
-        <f>IF(E3="","Please answer",IF(E3&lt;&gt;G3,"Wrong","Correct"))</f>
-        <v>Please answer</v>
+        <f>IF(E5="","Please answer",IF(E5&lt;&gt;G5,"Wrong","Correct"))</f>
+        <v>Correct</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>5</v>
@@ -538,20 +549,20 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="str">
-        <f>IF(E4="","Please answer",IF(E4&lt;&gt;G4,"Wrong","Correct"))</f>
+        <f>IF(E6="","Please answer",IF(E6&lt;&gt;G6,"Wrong","Correct"))</f>
         <v>Please answer</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -566,260 +577,260 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="str">
-        <f>IF(E5="","Please answer",IF(E5&lt;&gt;G5,"Wrong","Correct"))</f>
+        <f>IF(E7="","Please answer",IF(E7&lt;&gt;G7,"Wrong","Correct"))</f>
         <v>Please answer</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="str">
-        <f>IF(E6="","Please answer",IF(E6&lt;&gt;G6,"Wrong","Correct"))</f>
+        <f>IF(E8="","Please answer",IF(E8&lt;&gt;G8,"Wrong","Correct"))</f>
         <v>Please answer</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="str">
-        <f>IF(E7="","Please answer",IF(E7&lt;&gt;G7,"Wrong","Correct"))</f>
+        <f>IF(E9="","Please answer",IF(E9&lt;&gt;G9,"Wrong","Correct"))</f>
         <v>Please answer</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="str">
-        <f>IF(E8="","Please answer",IF(E8&lt;&gt;G8,"Wrong","Correct"))</f>
+        <f>IF(E10="","Please answer",IF(E10&lt;&gt;G10,"Wrong","Correct"))</f>
         <v>Please answer</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="str">
-        <f>IF(E9="","Please answer",IF(E9&lt;&gt;G9,"Wrong","Correct"))</f>
+        <f>IF(E11="","Please answer",IF(E11&lt;&gt;G11,"Wrong","Correct"))</f>
         <v>Please answer</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="str">
-        <f>IF(E10="","Please answer",IF(E10&lt;&gt;G10,"Wrong","Correct"))</f>
+        <f>IF(E12="","Please answer",IF(E12&lt;&gt;G12,"Wrong","Correct"))</f>
         <v>Please answer</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="str">
-        <f>IF(E11="","Please answer",IF(E11&lt;&gt;G11,"Wrong","Correct"))</f>
+        <f>IF(E13="","Please answer",IF(E13&lt;&gt;G13,"Wrong","Correct"))</f>
         <v>Please answer</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="str">
-        <f>IF(E12="","Please answer",IF(E12&lt;&gt;G12,"Wrong","Correct"))</f>
+        <f>IF(E14="","Please answer",IF(E14&lt;&gt;G14,"Wrong","Correct"))</f>
         <v>Please answer</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="str">
-        <f>IF(E13="","Please answer",IF(E13&lt;&gt;G13,"Wrong","Correct"))</f>
+        <f>IF(E15="","Please answer",IF(E15&lt;&gt;G15,"Wrong","Correct"))</f>
         <v>Please answer</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="str">
-        <f>IF(E14="","Please answer",IF(E14&lt;&gt;G14,"Wrong","Correct"))</f>
+        <f>IF(E16="","Please answer",IF(E16&lt;&gt;G16,"Wrong","Correct"))</f>
         <v>Please answer</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="str">
-        <f>IF(E15="","Please answer",IF(E15&lt;&gt;G15,"Wrong","Correct"))</f>
+        <f>IF(E17="","Please answer",IF(E17&lt;&gt;G17,"Wrong","Correct"))</f>
         <v>Please answer</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="str">
-        <f>IF(E16="","Please answer",IF(E16&lt;&gt;G16,"Wrong","Correct"))</f>
+        <f>IF(E18="","Please answer",IF(E18&lt;&gt;G18,"Wrong","Correct"))</f>
         <v>Please answer</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -830,18 +841,18 @@
         <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="str">
-        <f>IF(E17="","Please answer",IF(E17&lt;&gt;G17,"Wrong","Correct"))</f>
+        <f>IF(E19="","Please answer",IF(E19&lt;&gt;G19,"Wrong","Correct"))</f>
         <v>Please answer</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -852,58 +863,58 @@
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="str">
-        <f>IF(E18="","Please answer",IF(E18&lt;&gt;G18,"Wrong","Correct"))</f>
+        <f>IF(E20="","Please answer",IF(E20&lt;&gt;G20,"Wrong","Correct"))</f>
         <v>Please answer</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="str">
-        <f>IF(E19="","Please answer",IF(E19&lt;&gt;G19,"Wrong","Correct"))</f>
+        <f>IF(E21="","Please answer",IF(E21&lt;&gt;G21,"Wrong","Correct"))</f>
         <v>Please answer</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="str">
-        <f>IF(E20="","Please answer",IF(E20&lt;&gt;G20,"Wrong","Correct"))</f>
+        <f>IF(E22="","Please answer",IF(E22&lt;&gt;G22,"Wrong","Correct"))</f>
         <v>Please answer</v>
       </c>
       <c r="G22" s="2" t="s">
